--- a/data/trans_bre/P19C09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Provincia-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.020197600368661</v>
+        <v>-2.053536285885826</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.376879356194689</v>
+        <v>2.103025444652487</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.644631658405443</v>
+        <v>-3.9522259439964</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.6586756123525487</v>
+        <v>-0.6831323940253826</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1523948434629861</v>
+        <v>0.1088430794443415</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6119288985716148</v>
+        <v>-0.5936836310800059</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.250446418180368</v>
+        <v>4.575748699112594</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.47291382818495</v>
+        <v>10.3557680154808</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.123992419894845</v>
+        <v>4.196163009101871</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4.665583491130198</v>
+        <v>5.106040318931132</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>22.40943913765024</v>
+        <v>20.11248159180695</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.597480309295778</v>
+        <v>1.438243340675076</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.486340064064637</v>
+        <v>-2.641853615712856</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.569019307055174</v>
+        <v>-0.7285525808158577</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.780068511720493</v>
+        <v>-3.410413932417657</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.528624061106949</v>
+        <v>-0.5558976231566742</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5171445312630181</v>
+        <v>-0.520087645303968</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8878190395519679</v>
+        <v>-0.8734631667629741</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.412294785619113</v>
+        <v>2.565382540597864</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.260022309738823</v>
+        <v>3.146047001617421</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6216563204457952</v>
+        <v>0.8138848086109994</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.269951462854385</v>
+        <v>1.275991019201335</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.533022679169555</v>
+        <v>5.648358926229342</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6534555273389092</v>
+        <v>0.7403545647155512</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.056544492592112</v>
+        <v>-0.8334758236863632</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.821265235230585</v>
+        <v>-0.5409486207749969</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.47692673863646</v>
+        <v>-1.3251867821732</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3798184534960204</v>
+        <v>-0.3379124141781021</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4616248758979082</v>
+        <v>-0.3922704551897014</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
     </row>
@@ -826,19 +826,19 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.447387838964985</v>
+        <v>4.806006592428288</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.855917631756563</v>
+        <v>3.89920316318796</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.51138051832037</v>
+        <v>2.591804996787297</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>5.358877339129136</v>
+        <v>7.836561415016268</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>7.987391676302277</v>
+        <v>8.122261619667507</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
     </row>
@@ -880,22 +880,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.715518974101824</v>
+        <v>-4.000130963138477</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.29070475120793</v>
+        <v>-2.580058447436414</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.460247524414909</v>
+        <v>-5.255266072330783</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6665650521790308</v>
+        <v>-0.7037928764971784</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5426747219067163</v>
+        <v>-0.5591503577105968</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6059914465861773</v>
+        <v>-0.5840645372135903</v>
       </c>
     </row>
     <row r="15">
@@ -906,22 +906,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.615763692177476</v>
+        <v>2.480290505934735</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.759611273772698</v>
+        <v>4.062577390484406</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.104501535215971</v>
+        <v>2.178974776501469</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.556517163734359</v>
+        <v>1.383452164930326</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.136992765159099</v>
+        <v>2.319875287061638</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4762560583333537</v>
+        <v>0.5054697162659133</v>
       </c>
     </row>
     <row r="16">
@@ -962,20 +962,20 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.907988650608792</v>
+        <v>-4.625053746825187</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.92300451231469</v>
+        <v>-3.119942125670708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.387227699900837</v>
+        <v>-4.534635810882734</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.8419533372061674</v>
+        <v>-0.8680404880406825</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.7385931073951419</v>
+        <v>-0.7150345183252117</v>
       </c>
     </row>
     <row r="18">
@@ -986,20 +986,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.826336748656286</v>
+        <v>2.716959175629443</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.575893976639264</v>
+        <v>3.652955206940465</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.985619412221533</v>
+        <v>5.36623816822993</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.203470315389918</v>
+        <v>1.807945598962238</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>3.443252513486017</v>
+        <v>4.099178111516338</v>
       </c>
     </row>
     <row r="19">
@@ -1040,21 +1040,23 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.646141362777742</v>
+        <v>-2.469981823977276</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.5809567647059447</v>
+        <v>-1.00367348838181</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.4924355462913624</v>
+        <v>-0.7058813202610879</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7610188331667374</v>
+        <v>-0.7752020870048314</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4789182073509076</v>
-      </c>
-      <c r="H20" s="6" t="inlineStr"/>
+        <v>-0.5752211897461518</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1064,19 +1066,19 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.873011517508318</v>
+        <v>3.705592121119864</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.921167960323426</v>
+        <v>5.03876570709101</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.622903793070817</v>
+        <v>3.989204291429216</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>6.849260409910675</v>
+        <v>5.256856656036327</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>9.985523710557953</v>
+        <v>10.04776655636743</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
     </row>
@@ -1118,22 +1120,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.131352100909964</v>
+        <v>-0.190692917299585</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.887794530486495</v>
+        <v>-1.996978644531269</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.448678691988052</v>
+        <v>-1.609150022322104</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.110632551588258</v>
+        <v>-0.1226036061913735</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5727700516474183</v>
+        <v>-0.6031797523938085</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4714446245973468</v>
+        <v>-0.5034873109982161</v>
       </c>
     </row>
     <row r="24">
@@ -1144,22 +1146,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.287825997987436</v>
+        <v>4.266891995664091</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.698552076879938</v>
+        <v>1.602049999140725</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.764521929580602</v>
+        <v>2.935162951831213</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.930043996837256</v>
+        <v>2.713825563008657</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.423198044197584</v>
+        <v>1.121829136920607</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.257802091274497</v>
+        <v>2.288795250095845</v>
       </c>
     </row>
     <row r="25">
@@ -1200,22 +1202,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.181427275377886</v>
+        <v>-2.206713472124711</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.9542845490394306</v>
+        <v>-0.8851846101569015</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.956045196242101</v>
+        <v>-2.007689118832908</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6958383240161377</v>
+        <v>-0.7178523927324313</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6873717292505143</v>
+        <v>-0.7629562917968099</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7086643620490042</v>
+        <v>-0.7200453860999014</v>
       </c>
     </row>
     <row r="27">
@@ -1226,22 +1228,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.206592242761588</v>
+        <v>1.200561751823791</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.514895738792521</v>
+        <v>1.372636400335789</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9234998257661309</v>
+        <v>1.087145357887095</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9364440201723724</v>
+        <v>1.072742259015265</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5.853093132258097</v>
+        <v>4.165337365568082</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7679103000710423</v>
+        <v>0.9002399692555888</v>
       </c>
     </row>
     <row r="28">
@@ -1282,22 +1284,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3849438721433618</v>
+        <v>-0.4273836560431329</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2806001856363817</v>
+        <v>0.3124989760362852</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.019550867626841</v>
+        <v>-1.006099544300977</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.1289162073795352</v>
+        <v>-0.1433943381155079</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1122660062569284</v>
+        <v>0.1346080271161089</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.3143184505990737</v>
+        <v>-0.3108869854138279</v>
       </c>
     </row>
     <row r="30">
@@ -1308,22 +1310,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.48421089501315</v>
+        <v>1.447621255241235</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.947569909347787</v>
+        <v>1.91796872150387</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7227605885128596</v>
+        <v>0.7430757128457233</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.7200918368290076</v>
+        <v>0.6670432403385933</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.468948237204416</v>
+        <v>1.486176940064896</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3068883584756683</v>
+        <v>0.3146968637884939</v>
       </c>
     </row>
     <row r="31">
